--- a/Excel_Project/Transaction History.xlsx
+++ b/Excel_Project/Transaction History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Desktop\Data Science\ZTM_Excel_Mastery\Excel_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D12FB5-9025-4D51-B168-0745384ECCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD71D7C1-C090-4E8C-99E5-72C056A20A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C46FCB12-B3FC-4F46-A9E0-8C2EB516A738}"/>
   </bookViews>
@@ -667,7 +667,7 @@
   <dimension ref="A1:D2327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
